--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3335907.537793183</v>
+        <v>3331603.197983313</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8073336.09954066</v>
+        <v>8073336.099540659</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>263.7138800015062</v>
-      </c>
-      <c r="C2" t="n">
-        <v>263.7138800015062</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>212.568965117905</v>
+        <v>259.632696771575</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -746,19 +746,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>97.99706487181511</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>179.9156141225514</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015062</v>
+        <v>232.047715488148</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.38713904371835</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>263.7138800015062</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>263.7138800015062</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>225.403139763615</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>109.8280576942317</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>127.4695742187186</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>224.4086750521491</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1059,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>7.626659618201178</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>2.214688090590434</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>317.6896557328562</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>351.1926714538137</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>91.06264775161448</v>
+        <v>92.8390969161451</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115239</v>
+        <v>18.4733505966156</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>50.34571932179844</v>
       </c>
       <c r="W10" t="n">
-        <v>37.74165875620798</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V13" t="n">
-        <v>181.2557668969882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>74.75770077867867</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,19 +1821,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>74.20064764874485</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701372</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>142.7059665293336</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>122.2059282187645</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695533</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>45.66054613217746</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710093</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7122866515516</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>2.813978415465954</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.240968717414</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2721,10 +2721,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>80.67842139643689</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>219.4517041866526</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2845,16 +2845,16 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174144</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>47.16611136584791</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>211.6917002284529</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560544</v>
       </c>
     </row>
     <row r="33">
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>175.5375697851129</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>12.76515480631789</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>38.19083539427204</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V41" t="n">
         <v>327.752258470135</v>
@@ -3805,7 +3805,7 @@
         <v>349.2409687174131</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784691</v>
+        <v>369.7311006784702</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.3074752009607</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>173.2052365248857</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560544</v>
       </c>
     </row>
     <row r="45">
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>93.40444476188321</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>78.68827782033978</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.3840804899464</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00642392276843</v>
+        <v>423.8554133656</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276843</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276843</v>
+        <v>157.477756798422</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356496</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052545</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030608</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991321</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="V2" t="n">
-        <v>840.1393936243026</v>
+        <v>423.8554133656</v>
       </c>
       <c r="W2" t="n">
-        <v>840.1393936243026</v>
+        <v>423.8554133656</v>
       </c>
       <c r="X2" t="n">
-        <v>573.7617370571245</v>
+        <v>423.8554133656</v>
       </c>
       <c r="Y2" t="n">
-        <v>573.7617370571245</v>
+        <v>423.8554133656</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>489.334169819989</v>
+        <v>886.6401829859567</v>
       </c>
       <c r="C3" t="n">
-        <v>314.881140538862</v>
+        <v>712.1871537048297</v>
       </c>
       <c r="D3" t="n">
-        <v>165.9467308776108</v>
+        <v>563.2527440435784</v>
       </c>
       <c r="E3" t="n">
-        <v>165.9467308776108</v>
+        <v>404.0152890381229</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9467308776108</v>
+        <v>257.4807310650079</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776108</v>
+        <v>120.0840446140752</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
@@ -4412,10 +4412,10 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699345</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302312</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
         <v>529.474696326755</v>
@@ -4436,25 +4436,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098645</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>906.2192216098645</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>906.2192216098645</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>671.0671133781218</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W3" t="n">
-        <v>489.334169819989</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X3" t="n">
-        <v>489.334169819989</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y3" t="n">
-        <v>489.334169819989</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.0184834666425</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
         <v>21.0971104001205</v>
@@ -4491,19 +4491,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
         <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512191</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>719.2759572512191</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>452.8983006840411</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>452.8983006840411</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>186.5206441168631</v>
+        <v>820.4638881998146</v>
       </c>
       <c r="X4" t="n">
-        <v>186.5206441168631</v>
+        <v>592.4743373017973</v>
       </c>
       <c r="Y4" t="n">
-        <v>175.0184834666425</v>
+        <v>371.6817581582671</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>690.2330699327781</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="C5" t="n">
-        <v>423.8554133656</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="D5" t="n">
-        <v>423.8554133656</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E5" t="n">
-        <v>157.4777567984221</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="F5" t="n">
-        <v>150.5322560492186</v>
+        <v>248.7770495552872</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030612</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991325</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.514968335842</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4600,19 +4600,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>801.1705019471535</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>801.1705019471535</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>801.1705019471535</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>690.2330699327781</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>690.2330699327781</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>170.0315200613718</v>
+        <v>149.8542560755938</v>
       </c>
       <c r="C6" t="n">
-        <v>170.0315200613718</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
         <v>21.0971104001205</v>
@@ -4649,49 +4649,49 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957466</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>839.7105578442525</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>839.7105578442525</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>604.5584496125098</v>
+        <v>819.7034117742821</v>
       </c>
       <c r="W6" t="n">
-        <v>377.8830202669046</v>
+        <v>565.4660550460806</v>
       </c>
       <c r="X6" t="n">
-        <v>170.0315200613718</v>
+        <v>357.6145548405477</v>
       </c>
       <c r="Y6" t="n">
-        <v>170.0315200613718</v>
+        <v>149.8542560755938</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212.9614334462933</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C7" t="n">
-        <v>44.02525051838643</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
-        <v>44.02525051838643</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
         <v>21.0971104001205</v>
@@ -4731,16 +4731,16 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4752,25 +4752,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165361</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>622.5994491745504</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>622.5994491745504</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>622.5994491745504</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>622.5994491745504</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>394.609898276533</v>
+        <v>1052.618461328661</v>
       </c>
       <c r="Y7" t="n">
-        <v>394.609898276533</v>
+        <v>831.8258821851307</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1521.991145553529</v>
+        <v>1410.357830041763</v>
       </c>
       <c r="C8" t="n">
-        <v>1521.991145553529</v>
+        <v>1041.395313101352</v>
       </c>
       <c r="D8" t="n">
-        <v>1163.725446946778</v>
+        <v>683.1296144946011</v>
       </c>
       <c r="E8" t="n">
-        <v>777.9371943485339</v>
+        <v>683.1296144946011</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9512895589263</v>
+        <v>676.1841137453977</v>
       </c>
       <c r="G8" t="n">
         <v>355.2854715909975</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685566</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685566</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467175</v>
+        <v>187.3702251467168</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607425</v>
+        <v>442.1757437607413</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045931</v>
+        <v>795.1862829045911</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995227</v>
+        <v>1219.647962995224</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209584</v>
+        <v>1655.59168520958</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940596</v>
+        <v>2053.905718940591</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550198</v>
+        <v>2359.356530550192</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661163</v>
+        <v>2540.564622661158</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342783</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342783</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342783</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342783</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999212</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.731217729098</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="X8" t="n">
-        <v>1876.731217729098</v>
+        <v>2187.097002081697</v>
       </c>
       <c r="Y8" t="n">
-        <v>1521.991145553529</v>
+        <v>1796.957670105885</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010777</v>
+        <v>929.5097208010714</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199507</v>
+        <v>755.0566915199444</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586995</v>
+        <v>606.1222818586931</v>
       </c>
       <c r="E9" t="n">
-        <v>446.884826853244</v>
+        <v>446.8848268532376</v>
       </c>
       <c r="F9" t="n">
-        <v>300.350268880129</v>
+        <v>300.3502688801226</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763171</v>
+        <v>163.6480708763108</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993889</v>
+        <v>69.87120530444705</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685566</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637187</v>
+        <v>113.4887579637183</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148179</v>
+        <v>298.0857543148171</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377482991</v>
+        <v>592.6217377482977</v>
       </c>
       <c r="M9" t="n">
-        <v>1226.361020933138</v>
+        <v>1208.393778287025</v>
       </c>
       <c r="N9" t="n">
-        <v>1613.445423405707</v>
+        <v>1842.133061471862</v>
       </c>
       <c r="O9" t="n">
-        <v>2174.019871459256</v>
+        <v>2174.019871459251</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.05522988888</v>
+        <v>2421.055229888875</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442625</v>
+        <v>2536.272628442619</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342783</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251698</v>
+        <v>2424.826280251692</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685347</v>
+        <v>2230.816477685341</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751577</v>
+        <v>2002.72632175157</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519834</v>
+        <v>1767.574213519828</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791632</v>
+        <v>1513.336856791626</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.4853565861</v>
+        <v>1305.485356586093</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821146</v>
+        <v>1097.725057821139</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>455.1159879420891</v>
+        <v>665.0671186274017</v>
       </c>
       <c r="C10" t="n">
-        <v>455.1159879420891</v>
+        <v>496.1309356994948</v>
       </c>
       <c r="D10" t="n">
-        <v>304.9993485297533</v>
+        <v>346.014296287159</v>
       </c>
       <c r="E10" t="n">
-        <v>157.0862549473602</v>
+        <v>198.1012027047659</v>
       </c>
       <c r="F10" t="n">
-        <v>157.0862549473602</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="G10" t="n">
-        <v>157.0862549473602</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473602</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685566</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380146</v>
+        <v>76.63468308380115</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676567</v>
+        <v>248.2500215676561</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368918</v>
+        <v>523.3850043368909</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904033</v>
+        <v>823.865389990402</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101612</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931091</v>
+        <v>1382.582027931089</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616499</v>
+        <v>1581.490387616497</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.787843951768</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="U10" t="n">
-        <v>1123.66947044641</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="V10" t="n">
-        <v>1123.66947044641</v>
+        <v>1584.91488353615</v>
       </c>
       <c r="W10" t="n">
-        <v>1085.546582813876</v>
+        <v>1295.497713499189</v>
       </c>
       <c r="X10" t="n">
-        <v>857.5570319158589</v>
+        <v>1067.508162601172</v>
       </c>
       <c r="Y10" t="n">
-        <v>636.7644527723288</v>
+        <v>846.7155834576414</v>
       </c>
     </row>
     <row r="11">
@@ -5032,58 +5032,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V13" t="n">
-        <v>1505.299220625425</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,49 +5266,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355941</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466574</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913855</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891998</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446605</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1024.063349920563</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C16" t="n">
-        <v>855.1271669926562</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,13 +5454,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.70136564882</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750803</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y16" t="n">
-        <v>1205.711814750803</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192565</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890283</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.11872044489</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684177</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2366.028450684177</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>551.354624631591</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C19" t="n">
-        <v>382.4184417036842</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>382.4184417036842</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2323.522752046155</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2103.921287069096</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1814.846060413294</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406468</v>
@@ -5743,61 +5743,61 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2716.927329289434</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>3212.252935505193</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>3809.631423131745</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>4033.948342528642</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>4033.948342528642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400721</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277364</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,64 +5977,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756267</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913855</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417938</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972545</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211832</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>948.5505208511906</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6156,7 +6156,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6165,34 +6165,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832664</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855605</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199803</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1868.398285759938</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1578.981115722978</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1350.99156482496</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>1130.19898568143</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6250,7 +6250,7 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492579</v>
@@ -6259,10 +6259,10 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.0218491516696</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.3100179938677</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3052.912304341663</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C31" t="n">
-        <v>2883.976121413757</v>
+        <v>747.3737171343197</v>
       </c>
       <c r="D31" t="n">
-        <v>2733.859482001421</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="E31" t="n">
-        <v>2733.859482001421</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="F31" t="n">
-        <v>2586.969534503511</v>
+        <v>450.3671302240735</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.773435218391</v>
+        <v>283.1710309389535</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>141.4591997811516</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>4227.102614075139</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U31" t="n">
-        <v>3938.027387419337</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V31" t="n">
-        <v>3683.34289921345</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W31" t="n">
-        <v>3683.34289921345</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X31" t="n">
-        <v>3455.353348315433</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y31" t="n">
-        <v>3234.560769171903</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="32">
@@ -6697,28 +6697,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6733,7 +6733,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6742,7 +6742,7 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239597</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>924.8344286397185</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.53722908186</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153953</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741617</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159224</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661314</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4330.66764150288</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>4041.592414847078</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>4041.592414847078</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3752.175244810117</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3524.185693912099</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912099</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6931,22 +6931,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6955,19 +6955,19 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466574</v>
@@ -6982,7 +6982,7 @@
         <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3205.314685433481</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>3036.378502505574</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741617</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4440.932614305901</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>4151.857387650099</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3897.172899444212</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3607.755729407251</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3607.755729407251</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>3386.963150263721</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7168,37 +7168,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492579</v>
@@ -7207,13 +7207,13 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7265,16 +7265,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2092.798483612593</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3194.624135499466</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>3025.687952571559</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376194</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>3893.679321264684</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>3604.262151227724</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>3376.272600329706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>3376.272600329706</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168622</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7408,19 +7408,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7429,10 +7429,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398594</v>
@@ -7447,16 +7447,16 @@
         <v>4151.812499466575</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W41" t="n">
         <v>3467.98095685289</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7493,13 +7493,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
         <v>2001.151557821488</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2864.693115711031</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>2864.693115711031</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>2714.576476298695</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>2566.663382716302</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>2419.773435218392</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>2419.773435218392</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053499</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>4288.37685307644</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>3999.301626420638</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V43" t="n">
-        <v>3744.617138214751</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W43" t="n">
-        <v>3455.199968177791</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X43" t="n">
-        <v>3227.210417279774</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y43" t="n">
-        <v>3006.417838136244</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
@@ -7660,37 +7660,37 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3195.647281583948</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>3026.711098656041</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D46" t="n">
-        <v>2876.594459243706</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E46" t="n">
-        <v>2728.681365661313</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>3677.571434467152</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>3598.088325557718</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>3377.295746414188</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127261</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.3216690912726</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,13 +8540,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.4068835459976</v>
+        <v>255.2581536004312</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.1463441538068</v>
       </c>
       <c r="O9" t="n">
-        <v>230.9976142082421</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-2.500974792831613e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V13" t="n">
-        <v>70.88187642683982</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>73.85777223953369</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.9838267404993</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>37.12601365260369</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>58.82035778288011</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>100.7734165143917</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>72.11969353038566</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>249.323664908362</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.5874149221286302</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>6.257951202384561</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>34.09972495271761</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>5.713750098835334</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>41.86788054217541</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>135.8503182118945</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>213.946807929556</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.52450498097664</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>112.9792378643585</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>147.0213775686974</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>694003.8812816654</v>
+        <v>694003.8812816655</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>694003.8812816654</v>
+        <v>694003.8812816655</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>694003.8812816654</v>
+        <v>694003.8812816655</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>694003.8812816655</v>
+        <v>694003.8812816654</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="J2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="N2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="O2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210053</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580788</v>
+        <v>390680.0076580772</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606934</v>
+        <v>507909.2320606951</v>
       </c>
       <c r="F3" t="n">
-        <v>4.891243614695864e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.813903054426191e-10</v>
+        <v>2.920821771112969e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911379</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101766</v>
+        <v>95270.23779101721</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954691</v>
+        <v>132717.9756954694</v>
       </c>
       <c r="N3" t="n">
-        <v>1.670698566158535e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247648.5670423891</v>
+        <v>247648.567042389</v>
       </c>
       <c r="C4" t="n">
         <v>247648.5670423891</v>
       </c>
       <c r="D4" t="n">
-        <v>135650.8557716745</v>
+        <v>135650.855771675</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="F4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="F4" t="n">
-        <v>8727.256391744231</v>
-      </c>
       <c r="G4" t="n">
-        <v>8727.25639174418</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744162</v>
+        <v>8727.256391744246</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744237</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744251</v>
+        <v>8727.256391744224</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744246</v>
       </c>
       <c r="M4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744286</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.25639174418</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744248</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567896</v>
+        <v>92902.86757567883</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-251846.7579599932</v>
+        <v>-251846.7579599935</v>
       </c>
       <c r="C6" t="n">
-        <v>428241.2226312</v>
+        <v>428241.2226311998</v>
       </c>
       <c r="D6" t="n">
-        <v>119703.8618724226</v>
+        <v>119703.8618724241</v>
       </c>
       <c r="E6" t="n">
-        <v>108672.9214446606</v>
+        <v>108325.5421903018</v>
       </c>
       <c r="F6" t="n">
-        <v>616582.1535053535</v>
+        <v>616234.774250997</v>
       </c>
       <c r="G6" t="n">
-        <v>616582.1535053541</v>
+        <v>616234.7742509973</v>
       </c>
       <c r="H6" t="n">
-        <v>616582.1535053544</v>
+        <v>616234.7742509969</v>
       </c>
       <c r="I6" t="n">
-        <v>616582.1535053536</v>
+        <v>616234.7742509965</v>
       </c>
       <c r="J6" t="n">
-        <v>547582.9990862402</v>
+        <v>547235.6198318831</v>
       </c>
       <c r="K6" t="n">
-        <v>616582.1535053543</v>
+        <v>616234.774250997</v>
       </c>
       <c r="L6" t="n">
-        <v>521311.9157143364</v>
+        <v>520964.5364599795</v>
       </c>
       <c r="M6" t="n">
-        <v>483864.1778098848</v>
+        <v>483516.7985555276</v>
       </c>
       <c r="N6" t="n">
-        <v>616582.153505354</v>
+        <v>616234.7742509971</v>
       </c>
       <c r="O6" t="n">
-        <v>616582.153505354</v>
+        <v>616234.7742509972</v>
       </c>
       <c r="P6" t="n">
-        <v>616582.1535053541</v>
+        <v>616234.774250997</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627827</v>
+        <v>933.7024595627814</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,16 +26795,16 @@
         <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856957</v>
+        <v>640.1406900856941</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,25 +26813,25 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26931,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933044</v>
+        <v>319.6474457933031</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788911</v>
+        <v>434.2730407788926</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,10 +26980,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27017,43 +27017,43 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841895</v>
+        <v>376.4268100841879</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139526</v>
+        <v>532.5675980139545</v>
       </c>
       <c r="F4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015055</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841897</v>
+        <v>376.4268100841879</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139526</v>
+        <v>532.5675980139542</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27263,13 +27263,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841895</v>
+        <v>376.4268100841879</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139526</v>
+        <v>532.5675980139545</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>115.1832933522299</v>
+        <v>68.11956169855995</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27466,19 +27466,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.482255399394631</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27517,10 +27517,10 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>71.77936903836817</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27554,13 +27554,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117128</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.8091183350848</v>
+        <v>54.47528284844296</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>207.1975143083764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E5" t="n">
         <v>118.2164900707556</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>187.431034882095</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>259.9030429842373</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,10 +27697,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>45.23892476959718</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27757,13 +27757,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>27.28630810877053</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27779,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>138.807303028368</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27824,10 +27824,10 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>223.4949672984467</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>93.8595040553933</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465039</v>
+        <v>65.76608425465059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>123.4854171348408</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
@@ -27912,16 +27912,16 @@
         <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>35.04526720223993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27949,10 +27949,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.77644916453059</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164536878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>101.5869591640955</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>201.7919240020296</v>
       </c>
       <c r="W10" t="n">
-        <v>248.781339580383</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-2.300431003740554e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.762145984685048e-12</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29094,19 +29094,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>-8.221727186500901e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29574,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29817,7 +29817,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>-8.198220171166494e-13</v>
       </c>
     </row>
     <row r="33">
@@ -30471,13 +30471,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-7.993932284772709e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-8.04621477122283e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-8.04621477122283e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-8.04621477122283e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-8.04621477122283e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-8.04621477122283e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-8.04621477122283e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-8.04621477122283e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-1.205314886081169e-12</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-8.04621477122283e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30765,7 +30765,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-4.491686891788452e-13</v>
       </c>
     </row>
     <row r="45">
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885556</v>
+        <v>3.753577726885551</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546671</v>
+        <v>38.44132789546666</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157555</v>
+        <v>144.7098053157553</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972532</v>
+        <v>318.5802175972528</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763189</v>
+        <v>477.4691627763182</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354929</v>
+        <v>592.3427171354921</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359938</v>
+        <v>659.0954050359929</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525074</v>
+        <v>669.7602577525065</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307891</v>
+        <v>632.4356192307883</v>
       </c>
       <c r="P8" t="n">
-        <v>539.769169098302</v>
+        <v>539.7691690983012</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542128</v>
+        <v>405.3441667542123</v>
       </c>
       <c r="R8" t="n">
-        <v>235.785676886475</v>
+        <v>235.7856768864747</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140468</v>
+        <v>85.53465245140457</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944153</v>
+        <v>16.43128649944151</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508444</v>
+        <v>0.300286218150844</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436929</v>
+        <v>2.008341139436926</v>
       </c>
       <c r="H9" t="n">
-        <v>19.3963473203514</v>
+        <v>19.39634732035137</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026269</v>
+        <v>69.1468330902626</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079425</v>
+        <v>189.7441951079423</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502167</v>
+        <v>324.3030514502163</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571279</v>
+        <v>436.0654741571274</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617165</v>
+        <v>508.8678404617158</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152213</v>
+        <v>522.3360580152206</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519082</v>
+        <v>477.8354464519076</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947588</v>
+        <v>383.5050724947583</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463701</v>
+        <v>256.3629847463698</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204787</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366398</v>
+        <v>37.30405581366393</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133935</v>
+        <v>8.095024154133922</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419033</v>
+        <v>0.1321277065419031</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752559</v>
+        <v>1.683725746752556</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840003</v>
+        <v>14.96985254840001</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415878</v>
+        <v>50.63422518415872</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.0394102954057</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772518</v>
+        <v>195.6183185772515</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490123</v>
+        <v>250.3240987490119</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023124</v>
+        <v>263.9316641023121</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462349</v>
+        <v>257.6559590462346</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046254</v>
+        <v>237.9869810046251</v>
       </c>
       <c r="P10" t="n">
-        <v>203.638975770873</v>
+        <v>203.6389757708727</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939802</v>
+        <v>140.98907139398</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307412</v>
+        <v>75.70643221307402</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658776</v>
+        <v>29.34274778658773</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942749</v>
+        <v>7.194100917942739</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650331</v>
+        <v>0.09183958618650319</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>302.9675447508045</v>
       </c>
       <c r="N12" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32083,28 +32083,28 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>547.6926421044554</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>671.2522281007816</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>291.8940795642889</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>518.439455159358</v>
       </c>
       <c r="N21" t="n">
-        <v>357.9244589488858</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,40 +32700,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32742,7 +32742,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32791,31 +32791,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>134.7284881171886</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32882,7 +32882,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -33025,31 +33025,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>396.9700886943664</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33259,10 +33259,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422586</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>150.2061940096322</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33496,10 +33496,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
@@ -33508,19 +33508,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>555.0107214892107</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33736,7 +33736,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
@@ -33745,16 +33745,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>169.2687847673334</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>558.3177848342784</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
@@ -34222,7 +34222,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
@@ -34450,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>355.4083096598242</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089031</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.938547087769</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.534313070567</v>
+        <v>137.5343130705665</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313384</v>
+        <v>257.3793117313377</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655056</v>
+        <v>356.5763021655048</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087211</v>
+        <v>428.7491718087202</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559165</v>
+        <v>440.3471941559156</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091024</v>
+        <v>402.3374078091016</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430324</v>
+        <v>308.5361733430316</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797634</v>
+        <v>183.0384768797628</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234286</v>
+        <v>20.20013907234255</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127582</v>
+        <v>62.90656844127557</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758577</v>
+        <v>186.4616124758573</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772538</v>
+        <v>297.5110943772532</v>
       </c>
       <c r="M9" t="n">
-        <v>640.1406900856957</v>
+        <v>621.9919601401286</v>
       </c>
       <c r="N9" t="n">
-        <v>390.994345931888</v>
+        <v>640.1406900856941</v>
       </c>
       <c r="O9" t="n">
-        <v>566.2368162157059</v>
+        <v>335.2392020074631</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804286</v>
+        <v>249.5306650804281</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603486</v>
+        <v>116.3812106603482</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783571</v>
+        <v>24.53548676783554</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873313</v>
+        <v>25.68023017873296</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513689</v>
+        <v>173.3488267513687</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093284</v>
+        <v>277.9141240093281</v>
       </c>
       <c r="M10" t="n">
-        <v>303.515541064153</v>
+        <v>303.5155410641527</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254635</v>
+        <v>301.7881314254631</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186651</v>
+        <v>262.5721089186648</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357665</v>
+        <v>200.9175350357662</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228578</v>
+        <v>54.82702814228561</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="N12" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>405.5586081824371</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>528.6559836563372</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>151.9123054782673</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="N21" t="n">
-        <v>226.5827468655525</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902405</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0.7540807028583389</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36527,7 +36527,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367765</v>
       </c>
       <c r="L26" t="n">
         <v>632.079992146269</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>254.8360547723481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>18.86448192629892</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37156,19 +37156,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>423.6690094058774</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37393,16 +37393,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>27.13475084531504</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>426.9760727509451</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
@@ -37870,7 +37870,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
@@ -38098,22 +38098,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>213.2742757378059</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3331603.197983313</v>
+        <v>3333363.7282861</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015062</v>
+        <v>225.1346772411287</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>259.632696771575</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>10.18456372565646</v>
       </c>
       <c r="H3" t="n">
-        <v>97.99706487181511</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -822,13 +822,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>232.047715488148</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>41.57027631123313</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,19 +898,19 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>212.568965117905</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>225.403139763615</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -977,16 +977,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>127.4695742187186</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>132.7959433740181</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1056,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>120.5084574863875</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X7" t="n">
-        <v>2.214688090590434</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>317.6896557328562</v>
+        <v>262.6118190158909</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3351760237737</v>
+        <v>133.5587268592409</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8390969161451</v>
+        <v>92.83909691614507</v>
       </c>
       <c r="I9" t="n">
-        <v>18.4733505966156</v>
+        <v>20.2497997611524</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901739</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>50.34571932179844</v>
+        <v>50.34571932180047</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>74.20064764874485</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2004,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>122.2059282187645</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695533</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>107.7122866515516</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>19.86507844888319</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470136</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717414</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>80.67842139643689</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>146.523573900449</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206846</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2845,16 +2845,16 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174144</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605717069</v>
       </c>
       <c r="I31" t="n">
-        <v>47.16611136584791</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710094</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3082,10 +3082,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560544</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>99.97427419833859</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784703</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="36">
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>1.799772605716619</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3559,13 +3559,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>1.799772605716619</v>
+        <v>1.799772605717069</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3745,19 +3745,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784702</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766865</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>173.2052365248857</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560544</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>93.40444476188321</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141674</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>423.8554133656</v>
+        <v>534.7928453799755</v>
       </c>
       <c r="C2" t="n">
-        <v>423.8554133656</v>
+        <v>534.7928453799755</v>
       </c>
       <c r="D2" t="n">
-        <v>423.8554133656</v>
+        <v>268.4151888127975</v>
       </c>
       <c r="E2" t="n">
-        <v>157.477756798422</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358416</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298172</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>686.1106626298172</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="V2" t="n">
-        <v>423.8554133656</v>
+        <v>534.7928453799755</v>
       </c>
       <c r="W2" t="n">
-        <v>423.8554133656</v>
+        <v>534.7928453799755</v>
       </c>
       <c r="X2" t="n">
-        <v>423.8554133656</v>
+        <v>534.7928453799755</v>
       </c>
       <c r="Y2" t="n">
-        <v>423.8554133656</v>
+        <v>534.7928453799755</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>886.6401829859567</v>
+        <v>660.544000427793</v>
       </c>
       <c r="C3" t="n">
-        <v>712.1871537048297</v>
+        <v>486.090971146666</v>
       </c>
       <c r="D3" t="n">
-        <v>563.2527440435784</v>
+        <v>337.1565614854147</v>
       </c>
       <c r="E3" t="n">
-        <v>404.0152890381229</v>
+        <v>177.9191064799592</v>
       </c>
       <c r="F3" t="n">
-        <v>257.4807310650079</v>
+        <v>31.3845485068442</v>
       </c>
       <c r="G3" t="n">
-        <v>120.0840446140752</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
         <v>21.0971104001205</v>
@@ -4412,19 +4412,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4433,28 +4433,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="Y3" t="n">
-        <v>1054.855520006025</v>
+        <v>828.7593374478611</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.0332933280274</v>
+        <v>610.4242979401002</v>
       </c>
       <c r="C4" t="n">
-        <v>21.0971104001205</v>
+        <v>441.4881150121934</v>
       </c>
       <c r="D4" t="n">
-        <v>21.0971104001205</v>
+        <v>291.3714755998577</v>
       </c>
       <c r="E4" t="n">
-        <v>21.0971104001205</v>
+        <v>291.3714755998577</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I4" t="n">
         <v>21.0971104001205</v>
@@ -4500,10 +4500,10 @@
         <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4527,13 +4527,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>820.4638881998146</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X4" t="n">
-        <v>592.4743373017973</v>
+        <v>1012.86534191387</v>
       </c>
       <c r="Y4" t="n">
-        <v>371.6817581582671</v>
+        <v>792.07276277034</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.4778634388467</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="C5" t="n">
-        <v>788.4778634388467</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
-        <v>522.1002068716687</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044907</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>248.7770495552872</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
         <v>21.0971104001205</v>
@@ -4573,16 +4573,16 @@
         <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4609,10 +4609,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>149.8542560755938</v>
+        <v>694.6220209084487</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0971104001205</v>
+        <v>520.1689916273217</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0971104001205</v>
+        <v>371.2345819660704</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0971104001205</v>
+        <v>211.9971269606149</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I6" t="n">
         <v>21.0971104001205</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7034117742821</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>565.4660550460806</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>357.6145548405477</v>
+        <v>902.3823196734027</v>
       </c>
       <c r="Y6" t="n">
-        <v>149.8542560755938</v>
+        <v>694.6220209084487</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>650.177417354891</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="C7" t="n">
-        <v>481.2412344269841</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="D7" t="n">
-        <v>331.1245950146483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F7" t="n">
         <v>36.32155393434482</v>
@@ -4761,16 +4761,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>933.1298053733101</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>666.752148806132</v>
       </c>
       <c r="X7" t="n">
-        <v>1052.618461328661</v>
+        <v>438.7625979081146</v>
       </c>
       <c r="Y7" t="n">
-        <v>831.8258821851307</v>
+        <v>217.9700187645845</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1410.357830041763</v>
+        <v>1840.478091794285</v>
       </c>
       <c r="C8" t="n">
-        <v>1041.395313101352</v>
+        <v>1471.515574853873</v>
       </c>
       <c r="D8" t="n">
-        <v>683.1296144946011</v>
+        <v>1113.249876247123</v>
       </c>
       <c r="E8" t="n">
-        <v>683.1296144946011</v>
+        <v>727.4616236488782</v>
       </c>
       <c r="F8" t="n">
-        <v>676.1841137453977</v>
+        <v>316.4757188592707</v>
       </c>
       <c r="G8" t="n">
-        <v>355.2854715909975</v>
+        <v>51.21125520685561</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685561</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685561</v>
       </c>
       <c r="J8" t="n">
         <v>187.3702251467168</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607413</v>
+        <v>442.1757437607417</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045911</v>
+        <v>795.1862829045922</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995224</v>
+        <v>1219.647962995226</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.59168520958</v>
+        <v>1655.591685209583</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940591</v>
+        <v>2053.905718940594</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550192</v>
+        <v>2359.356530550196</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661158</v>
+        <v>2540.564622661161</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.562760342781</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342777</v>
+        <v>2435.830015762133</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342777</v>
+        <v>2227.077931858406</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342777</v>
+        <v>2227.077931858406</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342777</v>
+        <v>2227.077931858406</v>
       </c>
       <c r="W8" t="n">
-        <v>2560.562760342777</v>
+        <v>2227.077931858406</v>
       </c>
       <c r="X8" t="n">
-        <v>2187.097002081697</v>
+        <v>2227.077931858406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1796.957670105885</v>
+        <v>2227.077931858406</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010714</v>
+        <v>929.5097208010754</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199444</v>
+        <v>755.0566915199485</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586931</v>
+        <v>606.1222818586972</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532376</v>
+        <v>446.8848268532417</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801226</v>
+        <v>300.3502688801267</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763108</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>69.87120530444705</v>
+        <v>71.66559839993884</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685561</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637183</v>
+        <v>113.8846868285432</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148171</v>
+        <v>298.4816831796423</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377482977</v>
+        <v>593.0176666131234</v>
       </c>
       <c r="M9" t="n">
-        <v>1208.393778287025</v>
+        <v>956.0841350874246</v>
       </c>
       <c r="N9" t="n">
-        <v>1842.133061471862</v>
+        <v>1343.168537559994</v>
       </c>
       <c r="O9" t="n">
-        <v>2174.019871459251</v>
+        <v>1675.055347547383</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888875</v>
+        <v>2237.368846930545</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442619</v>
+        <v>2560.562760342781</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.562760342781</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251692</v>
+        <v>2424.826280251696</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685341</v>
+        <v>2230.816477685345</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.72632175157</v>
+        <v>2002.726321751574</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519828</v>
+        <v>1767.574213519832</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791626</v>
+        <v>1513.33685679163</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586093</v>
+        <v>1305.485356586097</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821139</v>
+        <v>1097.725057821144</v>
       </c>
     </row>
     <row r="10">
@@ -4944,58 +4944,58 @@
         <v>496.1309356994948</v>
       </c>
       <c r="D10" t="n">
-        <v>346.014296287159</v>
+        <v>346.0142962871591</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1012027047659</v>
+        <v>198.101202704766</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685561</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685561</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685561</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685561</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380115</v>
+        <v>76.63468308380139</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676561</v>
+        <v>248.2500215676566</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368909</v>
+        <v>523.3850043368917</v>
       </c>
       <c r="M10" t="n">
-        <v>823.865389990402</v>
+        <v>823.8653899904032</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.635640101612</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931089</v>
+        <v>1382.58202793109</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616497</v>
+        <v>1581.490387616499</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.76914547736</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.76914547736</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.76914547736</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.76914547736</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.76914547736</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="V10" t="n">
         <v>1584.91488353615</v>
@@ -5032,25 +5032,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5062,28 +5062,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683104</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N12" t="n">
         <v>1859.536823237711</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,37 +5272,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492579</v>
@@ -5311,7 +5311,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5363,13 +5363,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1336.167399417937</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5512,19 +5512,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5548,16 +5548,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2323.522752046155</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2103.921287069096</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1814.846060413294</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1560.161572207407</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5737,16 +5737,16 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192616</v>
@@ -5773,13 +5773,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5837,16 +5837,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5983,46 +5983,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123002</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,28 +6214,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6247,22 +6247,22 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770323</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>634.3345878491255</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>484.2179484367897</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>484.2179484367897</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.2179484367897</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G28" t="n">
-        <v>317.0218491516696</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H28" t="n">
-        <v>175.3100179938677</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2049.058935487114</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1759.983708831312</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.70136564882</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072721</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6460,28 +6460,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111704</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.3099000622266</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3737171343197</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D31" t="n">
-        <v>597.2570777219839</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E31" t="n">
-        <v>597.2570777219839</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F31" t="n">
-        <v>450.3671302240735</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G31" t="n">
-        <v>283.1710309389535</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H31" t="n">
-        <v>141.4591997811516</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6630,7 +6630,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6639,34 +6639,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035996</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,64 +6688,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6867,7 +6867,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6876,34 +6876,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611464</v>
@@ -6925,64 +6925,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7104,7 +7104,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7113,13 +7113,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487568</v>
@@ -7137,10 +7137,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,34 +7186,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,22 +7247,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
         <v>2001.151557821488</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7341,7 +7341,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7350,13 +7350,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487568</v>
@@ -7374,10 +7374,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611464</v>
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398594</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7578,7 +7578,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7587,34 +7587,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2052.406834234631</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.315625093766</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7648,22 +7648,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694709</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597624</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597624</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7815,7 +7815,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570818</v>
@@ -7824,34 +7824,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.32166909127244</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.399928146287408</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>255.2581536004312</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.1463441538068</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348513</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.9838267404993</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>58.82035778288011</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>72.11969353038566</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>205.844576940154</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5874149221286302</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>70.88187642683923</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="I31" t="n">
-        <v>34.09972495271761</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>65.54986409393025</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4949402405072</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405072</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194132</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>112.9792378643585</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>72.11969353038563</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>119.4047645948071</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>694003.8812816655</v>
+        <v>694003.8812816654</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>694003.8812816655</v>
+        <v>694003.8812816654</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>694003.8812816655</v>
+        <v>694003.8812816654</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>694003.8812816655</v>
+        <v>694003.8812816654</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778551</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="F2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726431.9397210054</v>
-      </c>
       <c r="H2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.939721005</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="J2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="O2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="L2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580772</v>
+        <v>390680.0076580784</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606951</v>
+        <v>507909.2320606937</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.920821771112969e-10</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911409</v>
+        <v>68999.15441911414</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101721</v>
+        <v>95270.23779101756</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954694</v>
+        <v>132717.9756954692</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>247648.5670423891</v>
       </c>
       <c r="D4" t="n">
-        <v>135650.855771675</v>
+        <v>135650.8557716747</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
@@ -26432,34 +26432,34 @@
         <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744246</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744237</v>
+        <v>8727.256391744202</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744224</v>
+        <v>8727.256391744168</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744246</v>
+        <v>8727.256391744162</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744177</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744257</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.25639174418</v>
+        <v>8727.256391744209</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744248</v>
+        <v>8727.256391744242</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567883</v>
+        <v>92902.86757567892</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-251846.7579599935</v>
+        <v>-251846.7579599933</v>
       </c>
       <c r="C6" t="n">
         <v>428241.2226311998</v>
       </c>
       <c r="D6" t="n">
-        <v>119703.8618724241</v>
+        <v>119703.861872423</v>
       </c>
       <c r="E6" t="n">
-        <v>108325.5421903018</v>
+        <v>108638.1835192248</v>
       </c>
       <c r="F6" t="n">
-        <v>616234.774250997</v>
+        <v>616547.4155799182</v>
       </c>
       <c r="G6" t="n">
-        <v>616234.7742509973</v>
+        <v>616547.4155799183</v>
       </c>
       <c r="H6" t="n">
-        <v>616234.7742509969</v>
+        <v>616547.4155799181</v>
       </c>
       <c r="I6" t="n">
-        <v>616234.7742509965</v>
+        <v>616547.4155799182</v>
       </c>
       <c r="J6" t="n">
-        <v>547235.6198318831</v>
+        <v>547548.2611608041</v>
       </c>
       <c r="K6" t="n">
-        <v>616234.774250997</v>
+        <v>616547.4155799183</v>
       </c>
       <c r="L6" t="n">
-        <v>520964.5364599795</v>
+        <v>521277.1777889009</v>
       </c>
       <c r="M6" t="n">
-        <v>483516.7985555276</v>
+        <v>483829.4398844494</v>
       </c>
       <c r="N6" t="n">
-        <v>616234.7742509971</v>
+        <v>616547.4155799183</v>
       </c>
       <c r="O6" t="n">
-        <v>616234.7742509972</v>
+        <v>616547.4155799183</v>
       </c>
       <c r="P6" t="n">
-        <v>616234.774250997</v>
+        <v>616547.4155799183</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627814</v>
+        <v>933.7024595627826</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,13 +26795,13 @@
         <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856941</v>
+        <v>640.1406900856952</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26810,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099649</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567694e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933031</v>
+        <v>319.6474457933042</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788926</v>
+        <v>434.2730407788912</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841879</v>
+        <v>376.426810084189</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139545</v>
+        <v>532.5675980139532</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015067</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841879</v>
+        <v>376.4268100841894</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139542</v>
+        <v>532.5675980139532</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841879</v>
+        <v>376.426810084189</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139545</v>
+        <v>532.5675980139532</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>156.795692831133</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>68.11956169855995</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27472,10 +27472,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>125.838155860767</v>
       </c>
       <c r="H3" t="n">
-        <v>1.482255399394631</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>43.92180400150558</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27542,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27557,7 +27557,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>15.07219909888208</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>54.47528284844296</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>184.139379077804</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,19 +27618,19 @@
         <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>152.7039266531025</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917676</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>187.431034882095</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27697,16 +27697,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>45.23892476959718</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27715,7 +27715,7 @@
         <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>72.97704182945935</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27776,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27833,13 +27833,13 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>131.6291858374404</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X7" t="n">
-        <v>223.4949672984467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>93.8595040553933</v>
+        <v>148.9373407723585</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465059</v>
+        <v>65.76608425465039</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348408</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0453666896857</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.776449164532835</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.776449164536878</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430996</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640955</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>201.7919240020296</v>
+        <v>201.7919240020275</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,19 +29325,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-1.092834328777952e-12</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29511,13 +29511,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-1.672078567559044e-12</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29574,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-1.832332906093958e-12</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,13 +29799,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29817,7 +29817,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>-8.198220171166494e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29994,16 +29994,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-6.379141014064722e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,13 +30036,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30051,10 +30051,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30285,7 +30285,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>-5.785973998768142e-13</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30465,19 +30465,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-7.993932284772709e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-8.04621477122283e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-8.04621477122283e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-8.04621477122283e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-8.04621477122283e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-8.04621477122283e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>-8.04621477122283e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>-8.04621477122283e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>-1.205314886081169e-12</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>-8.04621477122283e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30696,7 +30696,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30765,7 +30765,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>-4.491686891788452e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885551</v>
+        <v>3.753577726885555</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546666</v>
+        <v>38.4413278954667</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157553</v>
+        <v>144.7098053157555</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972528</v>
+        <v>318.5802175972532</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763182</v>
+        <v>477.4691627763188</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354921</v>
+        <v>592.3427171354928</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359929</v>
+        <v>659.0954050359937</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525065</v>
+        <v>669.7602577525074</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307883</v>
+        <v>632.435619230789</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983012</v>
+        <v>539.7691690983019</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542123</v>
+        <v>405.3441667542128</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864747</v>
+        <v>235.785676886475</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140457</v>
+        <v>85.53465245140468</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944151</v>
+        <v>16.43128649944153</v>
       </c>
       <c r="U8" t="n">
-        <v>0.300286218150844</v>
+        <v>0.3002862181508443</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436926</v>
+        <v>2.008341139436929</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035137</v>
+        <v>19.39634732035139</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902626</v>
+        <v>69.14683309026267</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079423</v>
+        <v>189.7441951079425</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502163</v>
+        <v>324.3030514502167</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571274</v>
+        <v>436.0654741571279</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617158</v>
+        <v>508.8678404617164</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152206</v>
+        <v>522.3360580152212</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519076</v>
+        <v>477.8354464519082</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947583</v>
+        <v>383.5050724947588</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463698</v>
+        <v>256.36298474637</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204787</v>
+        <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366393</v>
+        <v>37.30405581366398</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133922</v>
+        <v>8.095024154133933</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419031</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752556</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840001</v>
+        <v>14.96985254840003</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415872</v>
+        <v>50.63422518415878</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954057</v>
+        <v>119.0394102954059</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772515</v>
+        <v>195.6183185772518</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490119</v>
+        <v>250.3240987490123</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023121</v>
+        <v>263.9316641023124</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462346</v>
+        <v>257.6559590462349</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046251</v>
+        <v>237.9869810046254</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708727</v>
+        <v>203.638975770873</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.98907139398</v>
+        <v>140.9890713939802</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307402</v>
+        <v>75.70643221307411</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658773</v>
+        <v>29.34274778658776</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942739</v>
+        <v>7.194100917942748</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650319</v>
+        <v>0.0918395861865033</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>302.9675447508045</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32083,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>671.2522281007816</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32557,19 +32557,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>518.439455159358</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,13 +32785,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33174,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33216,7 +33216,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,25 +33259,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,7 +33289,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33356,7 +33356,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33453,7 +33453,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,25 +33496,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,7 +33526,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33593,7 +33593,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33690,7 +33690,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,25 +33733,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,7 +33763,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33830,7 +33830,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33927,7 +33927,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,25 +33970,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982885</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,7 +34000,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34067,7 +34067,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,40 +34122,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34164,7 +34164,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,25 +34207,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,7 +34237,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34304,7 +34304,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,40 +34359,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34401,7 +34401,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,25 +34444,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,7 +34474,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34541,7 +34541,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
@@ -34795,7 +34795,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250135</v>
       </c>
       <c r="Q3" t="n">
         <v>28.61687799649641</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705665</v>
+        <v>137.5343130705669</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313377</v>
+        <v>257.3793117313382</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655048</v>
+        <v>356.5763021655055</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087202</v>
+        <v>428.749171808721</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559156</v>
+        <v>440.3471941559165</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091016</v>
+        <v>402.3374078091023</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430316</v>
+        <v>308.5361733430323</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797628</v>
+        <v>183.0384768797633</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234255</v>
+        <v>20.20013907234284</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127557</v>
+        <v>63.3064965875632</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758573</v>
+        <v>186.4616124758577</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772532</v>
+        <v>297.5110943772537</v>
       </c>
       <c r="M9" t="n">
-        <v>621.9919601401286</v>
+        <v>366.7338065396981</v>
       </c>
       <c r="N9" t="n">
-        <v>640.1406900856941</v>
+        <v>390.9943459318879</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074631</v>
+        <v>335.2392020074637</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804281</v>
+        <v>567.9934337203657</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603482</v>
+        <v>326.4584983961976</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783554</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873296</v>
+        <v>25.68023017873311</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513687</v>
+        <v>173.3488267513689</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093281</v>
+        <v>277.9141240093284</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641527</v>
+        <v>303.515541064153</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254631</v>
+        <v>301.7881314254635</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186648</v>
+        <v>262.572108918665</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357662</v>
+        <v>200.9175350357665</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228561</v>
+        <v>54.82702814228578</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>160.8335108287862</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>528.6559836563372</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35889,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>376.3054212373396</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367765</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
         <v>632.079992146269</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396408</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -37001,7 +37001,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37238,7 +37238,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37475,7 +37475,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762701</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37712,7 +37712,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367759</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37949,7 +37949,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902405</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38186,7 +38186,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060455</v>
